--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P06_trail9 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P06_trail9 Features.xlsx
@@ -4222,7 +4222,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4233,29 +4233,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="19" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
-    <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
-    <col width="17" bestFit="1" customWidth="1" min="13" max="13"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="17" bestFit="1" customWidth="1" min="11" max="11"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
     <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="18" bestFit="1" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4276,115 +4274,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -4401,72 +4389,66 @@
         <v>1.248265594303004e-09</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.3701891035484101</v>
+        <v>5.35165511215018e-09</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-0.5411682325413771</v>
+        <v>3.931916189485551e-07</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>5.35165511215018e-09</v>
+        <v>-0.07147633998833997</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>3.931916189485551e-07</v>
+        <v>0.05955312805059419</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.07147633998833997</v>
+        <v>0.008643863208263963</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.05955312805059419</v>
+        <v>1.897301720618123</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.008643863208263963</v>
+        <v>4.733384498770894</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.957752125080156</v>
+        <v>7.710527345381205</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>4.733384498770894</v>
+        <v>1.065157213815923e-19</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>7.710527345381205</v>
+        <v>302112099106.0944</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>1.065157213815923e-19</v>
+        <v>3.918758387207225e-10</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>302112099106.0944</v>
+        <v>9721.873142945355</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>3.918758387207225e-10</v>
+        <v>1.923286843173477e-06</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>9721.873142945355</v>
+        <v>7.516487802622764</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>1.923286843173477e-06</v>
+        <v>1.924971352674994</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>7.516487802622764</v>
+        <v>0.0001086610693773465</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.924971352674994</v>
+        <v>9.154551501189019</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.0001086610693773465</v>
+        <v>0.9558396078047255</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>9.154551501189019</v>
+        <v>0.5993513284437155</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9558396078047255</v>
+        <v>708</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>0.5993513284437155</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>708</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>20.95966282309726</v>
       </c>
     </row>
@@ -4481,72 +4463,66 @@
         <v>1.207392393514992e-09</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.2568758436348282</v>
+        <v>4.941553650038771e-09</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-0.7580680783354392</v>
+        <v>3.931060514731231e-07</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>4.941553650038771e-09</v>
+        <v>-0.06822800549716464</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>3.931060514731231e-07</v>
+        <v>0.04593396991661367</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.06822800549716464</v>
+        <v>0.006758456177321097</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.04593396991661367</v>
+        <v>1.896803547507373</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.006758456177321097</v>
+        <v>4.43318035816976</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.95785077996952</v>
+        <v>8.071556720082198</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>4.43318035816976</v>
+        <v>1.059385613953091e-19</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>8.071556720082198</v>
+        <v>306309482723.0554</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>1.059385613953091e-19</v>
+        <v>3.865072490102806e-10</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>306309482723.0554</v>
+        <v>9939.738408087322</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>3.865072490102806e-10</v>
+        <v>2.128058058755634e-06</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>9939.738408087322</v>
+        <v>7.470258501192016</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>2.128058058755634e-06</v>
+        <v>1.9487314403136</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>7.470258501192016</v>
+        <v>0.0001187557736498605</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.9487314403136</v>
+        <v>9.139069042366044</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.0001187557736498605</v>
+        <v>0.9557565809920011</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>9.139069042366044</v>
+        <v>0.6125677077162859</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9557565809920011</v>
+        <v>719</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>0.6125677077162859</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>719</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>20.51682383265286</v>
       </c>
     </row>
@@ -4561,72 +4537,66 @@
         <v>1.178016645153867e-09</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.1759464080436598</v>
+        <v>4.648260675833897e-09</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.8989926437783193</v>
+        <v>3.930262446062694e-07</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>4.648260675833897e-09</v>
+        <v>-0.06577539984543541</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>3.930262446062694e-07</v>
+        <v>0.03669102070075062</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.06577539984543541</v>
+        <v>0.005668557145094203</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.03669102070075062</v>
+        <v>1.899064123550815</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.005668557145094203</v>
+        <v>4.116679602265376</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.956032316824201</v>
+        <v>8.134425829114679</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>4.116679602265376</v>
+        <v>1.0430733989669e-19</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>8.134425829114679</v>
+        <v>313251153670.2681</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>1.0430733989669e-19</v>
+        <v>3.78305996179271e-10</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>313251153670.2681</v>
+        <v>10235.29179105763</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>3.78305996179271e-10</v>
+        <v>1.897647617886546e-06</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>10235.29179105763</v>
+        <v>6.944730150652508</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>1.897647617886546e-06</v>
+        <v>1.972534681569395</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>6.944730150652508</v>
+        <v>9.152217235598287e-05</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.972534681569395</v>
+        <v>9.143298902488795</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>9.152217235598287e-05</v>
+        <v>0.9569452403511712</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>9.143298902488795</v>
+        <v>0.615153587498799</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9569452403511712</v>
+        <v>731</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>0.615153587498799</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>731</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>20.62424560414349</v>
       </c>
     </row>
@@ -4641,72 +4611,66 @@
         <v>1.156351866955886e-09</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.1183963229066817</v>
+        <v>4.412049271006543e-09</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.9953356992427911</v>
+        <v>3.929507914840561e-07</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>4.412049271006543e-09</v>
+        <v>-0.0635983366704333</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>3.929507914840561e-07</v>
+        <v>0.03001206488201564</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.0635983366704333</v>
+        <v>0.004943071161337477</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.03001206488201564</v>
+        <v>1.90170762435043</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.004943071161337477</v>
+        <v>3.989740399647303</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.953308361482583</v>
+        <v>8.898667594303369</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>3.989740399647303</v>
+        <v>1.07900587541025e-19</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>8.898667594303369</v>
+        <v>301461796222.1535</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>1.07900587541025e-19</v>
+        <v>3.945285464544499e-10</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>301461796222.1535</v>
+        <v>9805.920648609357</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>3.945285464544499e-10</v>
+        <v>1.622898074824437e-06</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>9805.920648609357</v>
+        <v>6.027084377747288</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>1.622898074824437e-06</v>
+        <v>2.125311247908823</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>6.027084377747288</v>
+        <v>5.89529834065475e-05</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>2.125311247908823</v>
+        <v>9.167044717522256</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>5.89529834065475e-05</v>
+        <v>0.9562276398803128</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>9.167044717522256</v>
+        <v>0.6248309572212157</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9562276398803128</v>
+        <v>706</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>0.6248309572212157</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>706</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>21.25621533622933</v>
       </c>
     </row>
@@ -4721,72 +4685,66 @@
         <v>1.139433226311274e-09</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.07943772337941656</v>
+        <v>4.208967292176624e-09</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.066188110432133</v>
+        <v>3.928789979892743e-07</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>4.208967292176624e-09</v>
+        <v>-0.06156987455345975</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>3.928789979892743e-07</v>
+        <v>0.02587588033356813</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.06156987455345975</v>
+        <v>0.004458844364305783</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.02587588033356813</v>
+        <v>1.908052526523041</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.004458844364305783</v>
+        <v>3.771867863583701</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.95615074641394</v>
+        <v>8.838576364606421</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>3.771867863583701</v>
+        <v>1.151046821544752e-19</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>8.838576364606421</v>
+        <v>296603878161.3903</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>1.151046821544752e-19</v>
+        <v>4.033224523200643e-10</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>296603878161.3903</v>
+        <v>10126.2032554022</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>4.033224523200643e-10</v>
+        <v>1.583534087454277e-06</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>10126.2032554022</v>
+        <v>6.004985954863034</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>1.583534087454277e-06</v>
+        <v>2.124413484874497</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>6.004985954863034</v>
+        <v>5.710201166841845e-05</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>2.124413484874497</v>
+        <v>9.168600372794916</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>5.710201166841845e-05</v>
+        <v>0.9582888213360373</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>9.168600372794916</v>
+        <v>0.6509377173526512</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9582888213360373</v>
+        <v>712</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>0.6509377173526512</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>712</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>21.93525533347012</v>
       </c>
     </row>
@@ -4801,72 +4759,66 @@
         <v>1.125467203644375e-09</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.05514144480192639</v>
+        <v>4.04031116217202e-09</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.121895121029</v>
+        <v>3.928102854017942e-07</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>4.04031116217202e-09</v>
+        <v>-0.05983440501361027</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>3.928102854017942e-07</v>
+        <v>0.02328193772265729</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.05983440501361027</v>
+        <v>0.004121160003831716</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.02328193772265729</v>
+        <v>1.907509659435086</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.004121160003831716</v>
+        <v>4.507657352540869</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.953651670982759</v>
+        <v>8.801877218849452</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>4.507657352540869</v>
+        <v>1.160665337746684e-19</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>8.801877218849452</v>
+        <v>294586683300.5402</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>1.160665337746684e-19</v>
+        <v>4.063282425684674e-10</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>294586683300.5402</v>
+        <v>10072.40630983913</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>4.063282425684674e-10</v>
+        <v>1.875739188640564e-06</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>10072.40630983913</v>
+        <v>6.749829632201913</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>1.875739188640564e-06</v>
+        <v>1.95814234695726</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>6.749829632201913</v>
+        <v>8.545905270188208e-05</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.95814234695726</v>
+        <v>9.131742857644726</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>8.545905270188208e-05</v>
+        <v>0.9571874827080301</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>9.131742857644726</v>
+        <v>0.6589948662013337</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9571874827080301</v>
+        <v>705</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>0.6589948662013337</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>705</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>22.0582806691687</v>
       </c>
     </row>
@@ -5243,7 +5195,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.352786400676823</v>
+        <v>1.340680641654062</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.310937485730674</v>
@@ -5332,7 +5284,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.360071201095822</v>
+        <v>1.335278266482222</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.978337837134448</v>
@@ -5421,7 +5373,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.388739366798807</v>
+        <v>1.365541144224234</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.190591720267445</v>
@@ -5510,7 +5462,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.384451029497197</v>
+        <v>1.374129543844586</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.236987663971459</v>
@@ -5599,7 +5551,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.364011739864472</v>
+        <v>1.351727772132531</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.175122387330975</v>
@@ -5688,7 +5640,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.381146490252702</v>
+        <v>1.366445450898401</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.096925696433515</v>
@@ -5777,7 +5729,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.379419761066795</v>
+        <v>1.364301500094422</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.320434396254954</v>
@@ -5866,7 +5818,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.385657293083014</v>
+        <v>1.37037574710268</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.213546623155803</v>
@@ -5955,7 +5907,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.392497585747757</v>
+        <v>1.374683117796044</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.215191369510356</v>
@@ -6044,7 +5996,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.393833649921649</v>
+        <v>1.374659294781701</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.292204891141994</v>
@@ -6133,7 +6085,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.388755253295405</v>
+        <v>1.371211999423218</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.242093414934699</v>
@@ -6222,7 +6174,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.364659682832184</v>
+        <v>1.350577743706664</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.10175681719077</v>
@@ -6311,7 +6263,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.351359330122204</v>
+        <v>1.345507123807107</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.369485539902057</v>
@@ -6400,7 +6352,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.353000501780493</v>
+        <v>1.344929012164873</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.255742879910618</v>
@@ -6489,7 +6441,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.335579316303994</v>
+        <v>1.330277903263716</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.359012896293738</v>
@@ -6578,7 +6530,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.331247907335191</v>
+        <v>1.321863798514234</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.289537283586011</v>
@@ -6667,7 +6619,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.336711626039972</v>
+        <v>1.325441390040792</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.315438154723956</v>
@@ -6756,7 +6708,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.336757462081818</v>
+        <v>1.321367053819037</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.390333053221112</v>
@@ -6845,7 +6797,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.319581991506132</v>
+        <v>1.303729650252615</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.432757392377324</v>
@@ -6934,7 +6886,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.339516463398928</v>
+        <v>1.319075178859402</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.353821556943917</v>
@@ -7023,7 +6975,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.335792149145511</v>
+        <v>1.322707401610555</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.309500219819871</v>
@@ -7112,7 +7064,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.354973494926599</v>
+        <v>1.331586542633972</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.32843456734082</v>
@@ -7201,7 +7153,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.343240995448915</v>
+        <v>1.326435498025147</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.441160849199421</v>
@@ -7290,7 +7242,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.344584917031848</v>
+        <v>1.328486165018719</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.453622996371738</v>
@@ -7379,7 +7331,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.36005317915558</v>
+        <v>1.341780045315849</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.176543610015777</v>
@@ -7468,7 +7420,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.375860150320039</v>
+        <v>1.353410162486446</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.418236234292305</v>
@@ -7557,7 +7509,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.380479565774992</v>
+        <v>1.359160636860527</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.264146741231965</v>
@@ -7646,7 +7598,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.399303993157389</v>
+        <v>1.37413189517576</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.419106541446349</v>
@@ -7735,7 +7687,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.373720725769621</v>
+        <v>1.351545255808625</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.289346464872416</v>
@@ -7824,7 +7776,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.429619762085134</v>
+        <v>1.410119859891699</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.454674212639008</v>
@@ -7913,7 +7865,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.439846483061971</v>
+        <v>1.424500667515838</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.462928345718032</v>
@@ -8002,7 +7954,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.450098680384815</v>
+        <v>1.435541426857941</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.377009014922957</v>
@@ -8091,7 +8043,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.446487055552261</v>
+        <v>1.43642567601364</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.058344812268992</v>
@@ -8180,7 +8132,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.44433987812678</v>
+        <v>1.438905309150394</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.381187500774829</v>
@@ -8269,7 +8221,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.445639672761466</v>
+        <v>1.442559198352157</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.36676258641104</v>
@@ -8358,7 +8310,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.317614939371674</v>
+        <v>1.317748786167605</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.646497553184716</v>
@@ -8447,7 +8399,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.299473975570534</v>
+        <v>1.308792736858615</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.643014998014493</v>
@@ -8536,7 +8488,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.303880379750767</v>
+        <v>1.31461566181921</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.644803457644243</v>
@@ -8625,7 +8577,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.308762615108144</v>
+        <v>1.319838189677133</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.651552633491093</v>
@@ -8714,7 +8666,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.311958697886655</v>
+        <v>1.325736295508478</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.656308089885737</v>
@@ -8803,7 +8755,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.314465217748783</v>
+        <v>1.330521046570611</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.661966901175648</v>
@@ -8892,7 +8844,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.33311525193556</v>
+        <v>1.347812366877958</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.669441630843592</v>
@@ -8981,7 +8933,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.33156015466544</v>
+        <v>1.345473121197499</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.673189727115246</v>
@@ -9070,7 +9022,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.351876275462402</v>
+        <v>1.370780623261742</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.66695511661976</v>
@@ -9159,7 +9111,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.341948603765068</v>
+        <v>1.358334903841943</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.661253381926627</v>
@@ -9248,7 +9200,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.340246398730274</v>
+        <v>1.355651781044609</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.64157592558209</v>
@@ -9337,7 +9289,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.343831803403309</v>
+        <v>1.35777063537584</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.632409648791209</v>
@@ -9426,7 +9378,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.350570469321708</v>
+        <v>1.358965837589696</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.649009190154939</v>
@@ -9515,7 +9467,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.344263110564444</v>
+        <v>1.356767315164211</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.648732485639129</v>
@@ -9604,7 +9556,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.354432293119415</v>
+        <v>1.363921050566964</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.616517830702582</v>
@@ -9693,7 +9645,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.506467738918652</v>
+        <v>1.507384231942035</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.152873592576706</v>
@@ -9979,7 +9931,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.474548576163262</v>
+        <v>1.44270531289317</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.407960289146683</v>
@@ -10068,7 +10020,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.486487763865935</v>
+        <v>1.449719434830842</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.579337040573613</v>
@@ -10157,7 +10109,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.487880388571675</v>
+        <v>1.447259038232365</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.36462381693431</v>
@@ -10246,7 +10198,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.484019113396101</v>
+        <v>1.445735509266406</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.419651330441759</v>
@@ -10335,7 +10287,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.466607207028174</v>
+        <v>1.429440884803557</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.386518829512656</v>
@@ -10424,7 +10376,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.478061600766704</v>
+        <v>1.440198438611003</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.497526150236046</v>
@@ -10513,7 +10465,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.475299963017624</v>
+        <v>1.434424733256674</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.397907008547192</v>
@@ -10602,7 +10554,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.500043102823052</v>
+        <v>1.452645297984182</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.76324697124364</v>
@@ -10691,7 +10643,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.513387453396873</v>
+        <v>1.455696907418057</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.579372252389895</v>
@@ -10780,7 +10732,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.517282205951658</v>
+        <v>1.464740848370172</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.614934403863665</v>
@@ -10869,7 +10821,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.519060924912778</v>
+        <v>1.464563735015092</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.641669631236024</v>
@@ -10958,7 +10910,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.504197221869133</v>
+        <v>1.455184004460252</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.723602996065813</v>
@@ -11047,7 +10999,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.49515200590844</v>
+        <v>1.449475726432419</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.713148960793944</v>
@@ -11136,7 +11088,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.498218081740907</v>
+        <v>1.452097396636825</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.407720847332365</v>
@@ -11225,7 +11177,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.497684036455518</v>
+        <v>1.451460547379589</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.584505259330911</v>
@@ -11314,7 +11266,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.480190136119841</v>
+        <v>1.436918887233098</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.762184174594462</v>
@@ -11403,7 +11355,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.473138488864209</v>
+        <v>1.431099282849058</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.710491920127754</v>
@@ -11492,7 +11444,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.478418143863559</v>
+        <v>1.433521840590936</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.726892358783219</v>
@@ -11581,7 +11533,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.481735539000362</v>
+        <v>1.436175864218417</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.804080705235311</v>
@@ -11670,7 +11622,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.48059003504449</v>
+        <v>1.433938361289451</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.62798114174697</v>
@@ -11759,7 +11711,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.482034714957351</v>
+        <v>1.432917744021609</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.627792670457093</v>
@@ -11848,7 +11800,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.486199631962928</v>
+        <v>1.431044860797261</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.75100308631885</v>
@@ -11937,7 +11889,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.485678401307801</v>
+        <v>1.432645703747679</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.70418879378806</v>
@@ -12026,7 +11978,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.486722318510166</v>
+        <v>1.442941754459761</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.843253672529538</v>
@@ -12115,7 +12067,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.486896951583581</v>
+        <v>1.440725638692205</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.799430644835092</v>
@@ -12204,7 +12156,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.481383189831616</v>
+        <v>1.436304034645557</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.834343517509777</v>
@@ -12293,7 +12245,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.48709092050683</v>
+        <v>1.446313972089747</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.572381844719533</v>
@@ -12382,7 +12334,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.484441034440711</v>
+        <v>1.447838244961383</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.599289599748793</v>
@@ -12471,7 +12423,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.468887803474274</v>
+        <v>1.438623788200845</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.785806503668885</v>
@@ -12560,7 +12512,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.496936913477303</v>
+        <v>1.473032515427137</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.32882969044396</v>
@@ -12649,7 +12601,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.503993526108445</v>
+        <v>1.485067293357599</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.523950968399625</v>
@@ -12738,7 +12690,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.503675500097853</v>
+        <v>1.49118448228369</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.587275723892319</v>
@@ -12827,7 +12779,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.50071045787861</v>
+        <v>1.493117264552979</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.387409986022071</v>
@@ -12916,7 +12868,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.520252792829766</v>
+        <v>1.512071748676608</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.329510199869108</v>
@@ -13005,7 +12957,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.526301578315802</v>
+        <v>1.518546304209813</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.523905689276247</v>
@@ -13094,7 +13046,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.495438956049161</v>
+        <v>1.494509265220699</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.566001276746757</v>
@@ -13183,7 +13135,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.496404380255571</v>
+        <v>1.502337502921695</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.528796588143817</v>
@@ -13272,7 +13224,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.501533881896161</v>
+        <v>1.508438415542102</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.587118735717105</v>
@@ -13361,7 +13313,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.493657991355863</v>
+        <v>1.497427837910037</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.488142839484325</v>
@@ -13450,7 +13402,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.499406625831849</v>
+        <v>1.503557638400414</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.52613136845454</v>
@@ -13539,7 +13491,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.498998869732109</v>
+        <v>1.501064968268986</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.579456686882893</v>
@@ -13628,7 +13580,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.512409431463135</v>
+        <v>1.51378639112319</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.452739920431568</v>
@@ -13717,7 +13669,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.524096630135595</v>
+        <v>1.521381715415302</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.535053437241753</v>
@@ -13806,7 +13758,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.550456835827976</v>
+        <v>1.540059608613005</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.551090643010163</v>
@@ -13895,7 +13847,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.529831264637214</v>
+        <v>1.520022954160037</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.468015522222172</v>
@@ -13984,7 +13936,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.54970049483411</v>
+        <v>1.529618231662914</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.335713906432352</v>
@@ -14073,7 +14025,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.537264468597707</v>
+        <v>1.516182302126319</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.672214715751656</v>
@@ -14162,7 +14114,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.530719182406912</v>
+        <v>1.507404751459826</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.660049711676252</v>
@@ -14251,7 +14203,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.510574156636405</v>
+        <v>1.493858402299657</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.629271079405256</v>
@@ -14340,7 +14292,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.505534345877109</v>
+        <v>1.478841485458045</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.578780162909688</v>
@@ -14429,7 +14381,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.528713796168657</v>
+        <v>1.495489548625492</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.611554280837983</v>
@@ -14715,7 +14667,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.603078918494694</v>
+        <v>1.545814791621212</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.539849183435356</v>
@@ -14804,7 +14756,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.606119766904021</v>
+        <v>1.549987241832033</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.396340607281945</v>
@@ -14893,7 +14845,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.617634683997273</v>
+        <v>1.562890257227926</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.372078239243018</v>
@@ -14982,7 +14934,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.624275947766403</v>
+        <v>1.580907207608891</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.406817105869373</v>
@@ -15071,7 +15023,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.611591939000987</v>
+        <v>1.570518042497588</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.134465928514017</v>
@@ -15160,7 +15112,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.619742148395417</v>
+        <v>1.577138356652671</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.854883899891659</v>
@@ -15249,7 +15201,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.626518034772337</v>
+        <v>1.58497187452728</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.061074505285119</v>
@@ -15338,7 +15290,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.614469702933478</v>
+        <v>1.573835346799259</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.281697276328983</v>
@@ -15427,7 +15379,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.611502097642218</v>
+        <v>1.565683589969097</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.116221554074777</v>
@@ -15516,7 +15468,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.601773328802205</v>
+        <v>1.562494453845228</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.112783342669565</v>
@@ -15605,7 +15557,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.612408474280409</v>
+        <v>1.564964744485503</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.494349215435863</v>
@@ -15694,7 +15646,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.598220570208666</v>
+        <v>1.550120407677967</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.095297500315175</v>
@@ -15783,7 +15735,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.601810479241656</v>
+        <v>1.556387115184872</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.129236363739256</v>
@@ -15872,7 +15824,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.601590267325493</v>
+        <v>1.558002330117</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.855379132214281</v>
@@ -15961,7 +15913,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.596917466399575</v>
+        <v>1.550729930964826</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.973667430799939</v>
@@ -16050,7 +16002,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.598255853348906</v>
+        <v>1.550295683686529</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.003709471179935</v>
@@ -16139,7 +16091,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.59339651497454</v>
+        <v>1.544055066741169</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.083855815576491</v>
@@ -16228,7 +16180,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.580028795163443</v>
+        <v>1.52750554958489</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.93900791967774</v>
@@ -16317,7 +16269,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.572080836867981</v>
+        <v>1.517495255113965</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.092706366766004</v>
@@ -16406,7 +16358,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.577040644731422</v>
+        <v>1.51778007214233</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.094506989645554</v>
@@ -16495,7 +16447,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.573241377730336</v>
+        <v>1.516791060605668</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.055020888130259</v>
@@ -16584,7 +16536,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.565061674353376</v>
+        <v>1.504442248178051</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.11820357276156</v>
@@ -16673,7 +16625,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.568203311066057</v>
+        <v>1.51068783181343</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.023426177918843</v>
@@ -16762,7 +16714,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.569125080597982</v>
+        <v>1.519280854412618</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.153432505700891</v>
@@ -16851,7 +16803,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.569442195131063</v>
+        <v>1.516213599231825</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.110450536883865</v>
@@ -16940,7 +16892,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.562811879248056</v>
+        <v>1.511434550082145</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.21457073993593</v>
@@ -17029,7 +16981,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.574915712631903</v>
+        <v>1.523898020798188</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.104179952493758</v>
@@ -17118,7 +17070,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.573691991736361</v>
+        <v>1.516441809553428</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.200642803766299</v>
@@ -17207,7 +17159,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.564074797110124</v>
+        <v>1.506913749041246</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.243903689336971</v>
@@ -17296,7 +17248,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.591886725705325</v>
+        <v>1.538580623570686</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.210236148398232</v>
@@ -17385,7 +17337,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.591974065401467</v>
+        <v>1.54731368205859</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.286406289266668</v>
@@ -17474,7 +17426,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.599266647642243</v>
+        <v>1.551784312022531</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.132985432844828</v>
@@ -17563,7 +17515,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.606104454380828</v>
+        <v>1.559564453948871</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.910600427672431</v>
@@ -17652,7 +17604,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.599561613889305</v>
+        <v>1.558733904953619</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.135268890337183</v>
@@ -17741,7 +17693,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.604894457451594</v>
+        <v>1.566615497529337</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.249925232922442</v>
@@ -17830,7 +17782,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.512618555319447</v>
+        <v>1.491215069618457</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.97721882752048</v>
@@ -17919,7 +17871,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.507953105109153</v>
+        <v>1.491457426369606</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.928658038119729</v>
@@ -18008,7 +17960,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.504923319030563</v>
+        <v>1.485234138802051</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.954724721936126</v>
@@ -18097,7 +18049,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.504325249810469</v>
+        <v>1.482842028818828</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.92890716850034</v>
@@ -18186,7 +18138,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.505243656364433</v>
+        <v>1.489147423653367</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.930849006110277</v>
@@ -18275,7 +18227,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.507498518713586</v>
+        <v>1.492025434792087</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.976382413363884</v>
@@ -18364,7 +18316,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.517689762748119</v>
+        <v>1.501387411366386</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.936174432942945</v>
@@ -18453,7 +18405,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.510797318439962</v>
+        <v>1.501025342833112</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.976931533737679</v>
@@ -18542,7 +18494,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.513925284213614</v>
+        <v>1.506354965046189</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.927647072899</v>
@@ -18631,7 +18583,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.487378393064072</v>
+        <v>1.479038194323422</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.904708830576283</v>
@@ -18720,7 +18672,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.489985694330176</v>
+        <v>1.474765492854985</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.945393013054151</v>
@@ -18809,7 +18761,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.490211461456347</v>
+        <v>1.474880476909391</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.882541349849181</v>
@@ -18898,7 +18850,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.491642465832153</v>
+        <v>1.474527533141012</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.90579594297852</v>
@@ -18987,7 +18939,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.4969091188738</v>
+        <v>1.479412867338086</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.906311748039394</v>
@@ -19076,7 +19028,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.501710680228491</v>
+        <v>1.480129617860257</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.875352716705733</v>
@@ -19165,7 +19117,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.604535269065343</v>
+        <v>1.562225356589398</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.771566163664719</v>
@@ -19451,7 +19403,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.729447256533869</v>
+        <v>1.68088794850513</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.90363632554486</v>
@@ -19540,7 +19492,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.71396776270028</v>
+        <v>1.658438702087621</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.123059541885068</v>
@@ -19629,7 +19581,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.727015591568503</v>
+        <v>1.678727765656419</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.797200948199364</v>
@@ -19718,7 +19670,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.723533578889787</v>
+        <v>1.679032277173546</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.166304539632564</v>
@@ -19807,7 +19759,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.707881785509213</v>
+        <v>1.669041178375446</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.589135443362643</v>
@@ -19896,7 +19848,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.712435130535887</v>
+        <v>1.668174264585653</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.358941217804755</v>
@@ -19985,7 +19937,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.710506394587704</v>
+        <v>1.670566062074743</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.598599769910499</v>
@@ -20074,7 +20026,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.702467561869974</v>
+        <v>1.662820345080819</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.521971323059293</v>
@@ -20163,7 +20115,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.706384772366629</v>
+        <v>1.664417957874691</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.431951533306365</v>
@@ -20252,7 +20204,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.695489601767666</v>
+        <v>1.658312255410337</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.606024361063851</v>
@@ -20341,7 +20293,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.702526786869939</v>
+        <v>1.664896303344239</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.573150811528866</v>
@@ -20430,7 +20382,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.694938865494208</v>
+        <v>1.656478145139081</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.677291889032188</v>
@@ -20519,7 +20471,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.710588020161759</v>
+        <v>1.673340487458897</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.597841217482274</v>
@@ -20608,7 +20560,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.706781203297285</v>
+        <v>1.671392164326915</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.646077430820867</v>
@@ -20697,7 +20649,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.703051263685263</v>
+        <v>1.663261853961232</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.777474998065356</v>
@@ -20786,7 +20738,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.698906545642198</v>
+        <v>1.652883927650605</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.784592858677193</v>
@@ -20875,7 +20827,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.706635603499608</v>
+        <v>1.662467470379401</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.776715655825019</v>
@@ -20964,7 +20916,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.701467070416763</v>
+        <v>1.65226322248985</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.461642698965797</v>
@@ -21053,7 +21005,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.696019677124671</v>
+        <v>1.645508630334538</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.983000240506054</v>
@@ -21142,7 +21094,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.699594178408346</v>
+        <v>1.647680929909719</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.808877798520891</v>
@@ -21231,7 +21183,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.700283136857331</v>
+        <v>1.64813463274335</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.910583016585532</v>
@@ -21320,7 +21272,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.704934929008896</v>
+        <v>1.642736399194278</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.815550848996352</v>
@@ -21409,7 +21361,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.70954696004425</v>
+        <v>1.645813171832339</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.360736461580314</v>
@@ -21498,7 +21450,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.716057541794469</v>
+        <v>1.651806628034884</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.939661917041913</v>
@@ -21587,7 +21539,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.733763306594491</v>
+        <v>1.665309724348215</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.002010224847134</v>
@@ -21676,7 +21628,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.727575205989622</v>
+        <v>1.653508314277559</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.65467925410836</v>
@@ -21765,7 +21717,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.737779319244827</v>
+        <v>1.662636988936646</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.893392580380286</v>
@@ -21854,7 +21806,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.745477282520222</v>
+        <v>1.664208789107718</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.361375143914365</v>
@@ -21943,7 +21895,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.736223653001863</v>
+        <v>1.652094073920568</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.876411393002788</v>
@@ -22032,7 +21984,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.753654519155233</v>
+        <v>1.670789585469365</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.74798328485638</v>
@@ -22121,7 +22073,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.758434326925641</v>
+        <v>1.675393468376561</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.86673985395657</v>
@@ -22210,7 +22162,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.756199721967884</v>
+        <v>1.673692830704503</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.834312151707005</v>
@@ -22299,7 +22251,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.766934760840238</v>
+        <v>1.685883710548585</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.476887636014047</v>
@@ -22388,7 +22340,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.775893368206799</v>
+        <v>1.696451902401899</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.411416095009458</v>
@@ -22477,7 +22429,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.784285251871374</v>
+        <v>1.703219019248793</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.491769252024522</v>
@@ -22566,7 +22518,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.672399856125456</v>
+        <v>1.628341536619505</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.274643209395713</v>
@@ -22655,7 +22607,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.665908481794059</v>
+        <v>1.627463052711007</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.261337636057781</v>
@@ -22744,7 +22696,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.659001282923813</v>
+        <v>1.622521357515077</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.245149542905144</v>
@@ -22833,7 +22785,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.648450564823281</v>
+        <v>1.609117845358209</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.239505608202207</v>
@@ -22922,7 +22874,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.650847550704021</v>
+        <v>1.61234078341452</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.246958556028257</v>
@@ -23011,7 +22963,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.647815789196689</v>
+        <v>1.610146305850536</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.202465755125743</v>
@@ -23100,7 +23052,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.647267326328019</v>
+        <v>1.608885549961778</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.190953404193247</v>
@@ -23189,7 +23141,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.637125983248724</v>
+        <v>1.601042110410854</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.166289122205868</v>
@@ -23278,7 +23230,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.635328097787089</v>
+        <v>1.59892782198777</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.20668443494863</v>
@@ -23367,7 +23319,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.62208644622026</v>
+        <v>1.586122708328738</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.158562826619764</v>
@@ -23456,7 +23408,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.62359402125307</v>
+        <v>1.58676170797485</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.135137318363278</v>
@@ -23545,7 +23497,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.6177153244223</v>
+        <v>1.582859892899862</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.158471881596834</v>
@@ -23634,7 +23586,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.613178969933479</v>
+        <v>1.579379369388393</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.142095872419451</v>
@@ -23723,7 +23675,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.606960297420586</v>
+        <v>1.571962746725403</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.127256189920882</v>
@@ -23812,7 +23764,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.595867460816045</v>
+        <v>1.553485778894312</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.14427821786476</v>
@@ -23901,7 +23853,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.711431455042723</v>
+        <v>1.635958666590865</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.158217685925377</v>
@@ -24187,7 +24139,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.432994977173573</v>
+        <v>1.413895948436615</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.922132625115863</v>
@@ -24276,7 +24228,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.432510082553062</v>
+        <v>1.407605999633526</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.639849811751823</v>
@@ -24365,7 +24317,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.445639367675814</v>
+        <v>1.420466486773047</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.785541544975053</v>
@@ -24454,7 +24406,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.443614039945623</v>
+        <v>1.426720985902998</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.807245389624581</v>
@@ -24543,7 +24495,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.41768418172495</v>
+        <v>1.406427526743535</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.752647660462666</v>
@@ -24632,7 +24584,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.419214561264236</v>
+        <v>1.413533263864237</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.884484926764941</v>
@@ -24721,7 +24673,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.417826355735844</v>
+        <v>1.41020343416229</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.685756862013012</v>
@@ -24810,7 +24762,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.424977146411242</v>
+        <v>1.417189710435</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.587239849368004</v>
@@ -24899,7 +24851,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.437244499864036</v>
+        <v>1.425272067985702</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.804253047649096</v>
@@ -24988,7 +24940,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.433264860562214</v>
+        <v>1.42707065356131</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.879175382043972</v>
@@ -25077,7 +25029,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.436550019654501</v>
+        <v>1.429539751264445</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.751382151706815</v>
@@ -25166,7 +25118,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.435245913997817</v>
+        <v>1.428664613814247</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.534452418679727</v>
@@ -25255,7 +25207,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.443425015382503</v>
+        <v>1.437284660650712</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.925178417189486</v>
@@ -25344,7 +25296,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.440075761189571</v>
+        <v>1.434689961450511</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.552602233226716</v>
@@ -25433,7 +25385,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.448923642233762</v>
+        <v>1.44187011345141</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.670497352482144</v>
@@ -25522,7 +25474,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.446359608222618</v>
+        <v>1.437229405675271</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.741144211087655</v>
@@ -25611,7 +25563,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.450073560119386</v>
+        <v>1.445753462330483</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.850088859524126</v>
@@ -25700,7 +25652,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.442601726197054</v>
+        <v>1.430627986679951</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.843064612820819</v>
@@ -25789,7 +25741,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.444192854563196</v>
+        <v>1.43323375305912</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.794050833171254</v>
@@ -25878,7 +25830,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.468251011336168</v>
+        <v>1.448346761817016</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.842011116302325</v>
@@ -25967,7 +25919,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.470870405750005</v>
+        <v>1.450561092445098</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.81136646493817</v>
@@ -26056,7 +26008,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.475466009674201</v>
+        <v>1.449991047701493</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.934940600805366</v>
@@ -26145,7 +26097,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.465270389483724</v>
+        <v>1.444885809817947</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.752716796456202</v>
@@ -26234,7 +26186,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.469364951390808</v>
+        <v>1.449072488260008</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.684847894863541</v>
@@ -26323,7 +26275,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.458994959001453</v>
+        <v>1.435862728281464</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.634773401458168</v>
@@ -26412,7 +26364,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.45207306019795</v>
+        <v>1.428347009314089</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.769492984383896</v>
@@ -26501,7 +26453,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.455252899857572</v>
+        <v>1.431202839474787</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.001840262886646</v>
@@ -26590,7 +26542,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.457601391178116</v>
+        <v>1.432454815713967</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.615891267442012</v>
@@ -26679,7 +26631,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.468047296295143</v>
+        <v>1.4465386114963</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.949649938732122</v>
@@ -26768,7 +26720,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.500075831161007</v>
+        <v>1.487503629961711</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.047375623324654</v>
@@ -26857,7 +26809,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.524603806009925</v>
+        <v>1.518294616127786</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.021761582284231</v>
@@ -26946,7 +26898,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.536405398969284</v>
+        <v>1.530381015126114</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.825887686998261</v>
@@ -27035,7 +26987,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.543923938838695</v>
+        <v>1.542179998543219</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.943194363350293</v>
@@ -27124,7 +27076,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.54997838768286</v>
+        <v>1.548652614693637</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.057965490867693</v>
@@ -27213,7 +27165,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.537287838025385</v>
+        <v>1.539431033711439</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.892976187771378</v>
@@ -27302,7 +27254,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.37882455328121</v>
+        <v>1.387256845047292</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.691116792996627</v>
@@ -27391,7 +27343,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.359170736769992</v>
+        <v>1.373288713715112</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.685408071762096</v>
@@ -27480,7 +27432,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.361937671749145</v>
+        <v>1.377839092231322</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.716229623530718</v>
@@ -27569,7 +27521,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.364674955021045</v>
+        <v>1.381722144731113</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.728862172826261</v>
@@ -27658,7 +27610,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.375831844001842</v>
+        <v>1.395319544003052</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.709952271152673</v>
@@ -27747,7 +27699,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.378422709482082</v>
+        <v>1.400078698609872</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.725636071696712</v>
@@ -27836,7 +27788,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.376972360924901</v>
+        <v>1.401867789099363</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.712601353887118</v>
@@ -27925,7 +27877,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.381042915429187</v>
+        <v>1.403303411384989</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.72858096240985</v>
@@ -28014,7 +27966,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.377612448381542</v>
+        <v>1.398677833081412</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.727788164205167</v>
@@ -28103,7 +28055,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.350942891022817</v>
+        <v>1.368309404092788</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.688765348058189</v>
@@ -28192,7 +28144,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.3281907917297</v>
+        <v>1.34347536568772</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.668368759413528</v>
@@ -28281,7 +28233,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.32021009583051</v>
+        <v>1.335936388655088</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.677471181152562</v>
@@ -28370,7 +28322,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.318448679332609</v>
+        <v>1.330196905771291</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.676974081608888</v>
@@ -28459,7 +28411,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.31246781491223</v>
+        <v>1.326218585091908</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.672024600875053</v>
@@ -28548,7 +28500,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.318208822425014</v>
+        <v>1.329150947367505</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.670918792111476</v>
@@ -28637,7 +28589,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.439449402839344</v>
+        <v>1.451619904514069</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.003166435774713</v>
@@ -28923,7 +28875,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.656658289446385</v>
+        <v>1.642955250366532</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.954881478648475</v>
@@ -29012,7 +28964,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.65075294829901</v>
+        <v>1.622308004081923</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.493225148770124</v>
@@ -29101,7 +29053,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.676583660077653</v>
+        <v>1.647447863300654</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.001751376294428</v>
@@ -29190,7 +29142,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.670358410953392</v>
+        <v>1.643194152587341</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.910667756014813</v>
@@ -29279,7 +29231,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.645614929963509</v>
+        <v>1.626404490981188</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.845100407336139</v>
@@ -29368,7 +29320,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.662914818224828</v>
+        <v>1.638440079147733</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.748061155592928</v>
@@ -29457,7 +29409,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.660696467758812</v>
+        <v>1.639791789560279</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.041638292542022</v>
@@ -29546,7 +29498,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.651946629235137</v>
+        <v>1.635244624289646</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.885062069699275</v>
@@ -29635,7 +29587,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.65878421667014</v>
+        <v>1.638902865361005</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.802440284298701</v>
@@ -29724,7 +29676,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.662859696609078</v>
+        <v>1.646105403495496</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.027024797217059</v>
@@ -29813,7 +29765,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.67583243553681</v>
+        <v>1.660079360902274</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.874103673935532</v>
@@ -29902,7 +29854,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.661412150845964</v>
+        <v>1.652176124229872</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.672739645122097</v>
@@ -29991,7 +29943,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.662484351242634</v>
+        <v>1.660525974285054</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.737661620533603</v>
@@ -30080,7 +30032,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.664728715607429</v>
+        <v>1.6603012726085</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.052250281242407</v>
@@ -30169,7 +30121,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.646468836580173</v>
+        <v>1.640582890892444</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.097878755658647</v>
@@ -30258,7 +30210,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.64815103841224</v>
+        <v>1.641922325067513</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.731522569760142</v>
@@ -30347,7 +30299,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.655182756277755</v>
+        <v>1.653435935179919</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.858584043668369</v>
@@ -30436,7 +30388,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.654338620360354</v>
+        <v>1.651235530552459</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.74964994401887</v>
@@ -30525,7 +30477,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.646783130321486</v>
+        <v>1.644527984939154</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.145147478793455</v>
@@ -30614,7 +30566,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.667000354084878</v>
+        <v>1.661653550161144</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.039139978004503</v>
@@ -30703,7 +30655,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.661308619497112</v>
+        <v>1.658016868329973</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.771665957677342</v>
@@ -30792,7 +30744,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.679600266415034</v>
+        <v>1.669642817606609</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.996875534234031</v>
@@ -30881,7 +30833,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.671046384517952</v>
+        <v>1.663933630193053</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.960938535936252</v>
@@ -30970,7 +30922,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.682899971465979</v>
+        <v>1.673885680272783</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.244562586647397</v>
@@ -31059,7 +31011,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.692612777349545</v>
+        <v>1.680019241437501</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.175837025303066</v>
@@ -31148,7 +31100,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.697507985459848</v>
+        <v>1.677613626171439</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.974451460840479</v>
@@ -31237,7 +31189,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.690891753674546</v>
+        <v>1.665970139262092</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.192207818723345</v>
@@ -31326,7 +31278,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.708474292718466</v>
+        <v>1.680865905724189</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.282006391324854</v>
@@ -31415,7 +31367,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.68634108777612</v>
+        <v>1.665867159223511</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.804354690835313</v>
@@ -31504,7 +31456,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.726442884800841</v>
+        <v>1.701737161421212</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.980999314658954</v>
@@ -31593,7 +31545,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.726333139947703</v>
+        <v>1.701961324175239</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.85402942457109</v>
@@ -31682,7 +31634,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.73246983366377</v>
+        <v>1.707470265034654</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.007800355975942</v>
@@ -31771,7 +31723,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.731071347952234</v>
+        <v>1.706250034282544</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.637076495170031</v>
@@ -31860,7 +31812,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.733936530704264</v>
+        <v>1.710755557245057</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.283014076423571</v>
@@ -31949,7 +31901,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.721079246177459</v>
+        <v>1.701782124911951</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.974552610059238</v>
@@ -32038,7 +31990,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.510255611571756</v>
+        <v>1.519157216238928</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.829253417138792</v>
@@ -32127,7 +32079,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.492351167983588</v>
+        <v>1.503088487206231</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.809734290284414</v>
@@ -32216,7 +32168,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.494000903837615</v>
+        <v>1.508167737070018</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.835125932280133</v>
@@ -32305,7 +32257,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.48703730329181</v>
+        <v>1.499153786509991</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.815000922015479</v>
@@ -32394,7 +32346,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.486055115941049</v>
+        <v>1.498927685565369</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.824472037706763</v>
@@ -32483,7 +32435,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.486004628854657</v>
+        <v>1.500615298967248</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.833641685735513</v>
@@ -32572,7 +32524,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.496417594383649</v>
+        <v>1.508655327749368</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.82602926196768</v>
@@ -32661,7 +32613,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.485924092205548</v>
+        <v>1.49554726803391</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.818635911852226</v>
@@ -32750,7 +32702,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.490892841898029</v>
+        <v>1.498459753229625</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.806262798575168</v>
@@ -32839,7 +32791,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.481342983054432</v>
+        <v>1.487730648330448</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.773875810619517</v>
@@ -32928,7 +32880,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.4768208406576</v>
+        <v>1.483231682919312</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.766644976935611</v>
@@ -33017,7 +32969,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.464525347957935</v>
+        <v>1.472040951995468</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.761906307583003</v>
@@ -33106,7 +33058,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.463441628235336</v>
+        <v>1.4692961889985</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.773170448723418</v>
@@ -33195,7 +33147,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.455380686395533</v>
+        <v>1.467387189809829</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.766229386038008</v>
@@ -33284,7 +33236,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.466019449330351</v>
+        <v>1.471869066858158</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.707493828768049</v>
@@ -33373,7 +33325,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.699195059654955</v>
+        <v>1.673733985026042</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.350014869925942</v>
